--- a/biology/Botanique/Epidendrum_katarun-yariku/Epidendrum_katarun-yariku.xlsx
+++ b/biology/Botanique/Epidendrum_katarun-yariku/Epidendrum_katarun-yariku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidendrum katarun-yariku est une espèce d'orchidée du genre Epidendrum poussant sur les tepuys du plateau des Guyanes.
-Elle est identifiée et décrite par Eric Hágsater, un botaniste mexicain, et Mateusz Wrazidlo, un explorateur silésien, en janvier 2021[1]. Wrazidlo laisse la famille de son guide du village de Paruima nommer la plante et elle opte pour « katarun yariku » (mots pemons pour « haute fleur »)[2].
+Elle est identifiée et décrite par Eric Hágsater, un botaniste mexicain, et Mateusz Wrazidlo, un explorateur silésien, en janvier 2021. Wrazidlo laisse la famille de son guide du village de Paruima nommer la plante et elle opte pour « katarun yariku » (mots pemons pour « haute fleur »).
 </t>
         </is>
       </c>
